--- a/17级2班擦黑板.xlsx
+++ b/17级2班擦黑板.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,10 +545,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16303111</v>
+        <v>17345057</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>16317010</v>
+        <v>17345058</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16343055</v>
+        <v>16303111</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16343092</v>
+        <v>16317010</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16343094</v>
+        <v>16343055</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16343099</v>
+        <v>16343092</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,10 +611,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>17345051</v>
+        <v>16343094</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17345052</v>
+        <v>16343099</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17345053</v>
+        <v>17345051</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17345054</v>
+        <v>17345052</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>17345055</v>
+        <v>17345053</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>17345056</v>
+        <v>17345054</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>17345057</v>
+        <v>17345055</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>17345058</v>
+        <v>17345056</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
